--- a/DataSet/EmiCalc_DataWrite.xlsx
+++ b/DataSet/EmiCalc_DataWrite.xlsx
@@ -41,31 +41,31 @@
     <t>2024</t>
   </si>
   <si>
-    <t>₹ 2,32,336</t>
-  </si>
-  <si>
-    <t>₹ 3,67,618</t>
-  </si>
-  <si>
-    <t>₹ 41,250</t>
-  </si>
-  <si>
-    <t>₹ 6,41,204</t>
-  </si>
-  <si>
-    <t>₹ 43,27,664</t>
-  </si>
-  <si>
-    <t>5.1%</t>
+    <t>₹ 2,10,417</t>
+  </si>
+  <si>
+    <t>₹ 3,34,996</t>
+  </si>
+  <si>
+    <t>₹ 37,500</t>
+  </si>
+  <si>
+    <t>₹ 5,82,913</t>
+  </si>
+  <si>
+    <t>₹ 43,49,583</t>
+  </si>
+  <si>
+    <t>4.61%</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
-    <t>₹ 2,76,215</t>
-  </si>
-  <si>
-    <t>₹ 3,78,280</t>
+    <t>₹ 2,74,159</t>
+  </si>
+  <si>
+    <t>₹ 3,80,336</t>
   </si>
   <si>
     <t>₹ 45,000</t>
@@ -74,157 +74,157 @@
     <t>₹ 6,99,495</t>
   </si>
   <si>
-    <t>₹ 40,51,449</t>
-  </si>
-  <si>
-    <t>11.15%</t>
+    <t>₹ 40,75,424</t>
+  </si>
+  <si>
+    <t>10.63%</t>
   </si>
   <si>
     <t>2026</t>
   </si>
   <si>
-    <t>₹ 3,02,126</t>
-  </si>
-  <si>
-    <t>₹ 3,52,369</t>
-  </si>
-  <si>
-    <t>₹ 37,49,323</t>
-  </si>
-  <si>
-    <t>17.78%</t>
+    <t>₹ 2,99,877</t>
+  </si>
+  <si>
+    <t>₹ 3,54,619</t>
+  </si>
+  <si>
+    <t>₹ 37,75,548</t>
+  </si>
+  <si>
+    <t>17.2%</t>
   </si>
   <si>
     <t>2027</t>
   </si>
   <si>
-    <t>₹ 3,30,467</t>
-  </si>
-  <si>
-    <t>₹ 3,24,028</t>
-  </si>
-  <si>
-    <t>₹ 34,18,856</t>
-  </si>
-  <si>
-    <t>25.03%</t>
+    <t>₹ 3,28,007</t>
+  </si>
+  <si>
+    <t>₹ 3,26,488</t>
+  </si>
+  <si>
+    <t>₹ 34,47,540</t>
+  </si>
+  <si>
+    <t>24.4%</t>
   </si>
   <si>
     <t>2028</t>
   </si>
   <si>
-    <t>₹ 3,61,467</t>
-  </si>
-  <si>
-    <t>₹ 2,93,028</t>
-  </si>
-  <si>
-    <t>₹ 30,57,388</t>
-  </si>
-  <si>
-    <t>32.95%</t>
+    <t>₹ 3,58,777</t>
+  </si>
+  <si>
+    <t>₹ 2,95,719</t>
+  </si>
+  <si>
+    <t>₹ 30,88,764</t>
+  </si>
+  <si>
+    <t>32.26%</t>
   </si>
   <si>
     <t>2029</t>
   </si>
   <si>
-    <t>₹ 3,95,375</t>
-  </si>
-  <si>
-    <t>₹ 2,59,120</t>
-  </si>
-  <si>
-    <t>₹ 26,62,013</t>
-  </si>
-  <si>
-    <t>41.62%</t>
+    <t>₹ 3,92,432</t>
+  </si>
+  <si>
+    <t>₹ 2,62,063</t>
+  </si>
+  <si>
+    <t>₹ 26,96,332</t>
+  </si>
+  <si>
+    <t>40.87%</t>
   </si>
   <si>
     <t>2030</t>
   </si>
   <si>
-    <t>₹ 4,32,464</t>
-  </si>
-  <si>
-    <t>₹ 2,22,031</t>
-  </si>
-  <si>
-    <t>₹ 22,29,549</t>
-  </si>
-  <si>
-    <t>51.11%</t>
+    <t>₹ 4,29,245</t>
+  </si>
+  <si>
+    <t>₹ 2,25,250</t>
+  </si>
+  <si>
+    <t>₹ 22,67,087</t>
+  </si>
+  <si>
+    <t>50.28%</t>
   </si>
   <si>
     <t>2031</t>
   </si>
   <si>
-    <t>₹ 4,73,033</t>
-  </si>
-  <si>
-    <t>₹ 1,81,463</t>
-  </si>
-  <si>
-    <t>₹ 17,56,516</t>
-  </si>
-  <si>
-    <t>61.48%</t>
+    <t>₹ 4,69,511</t>
+  </si>
+  <si>
+    <t>₹ 1,84,984</t>
+  </si>
+  <si>
+    <t>₹ 17,97,575</t>
+  </si>
+  <si>
+    <t>60.58%</t>
   </si>
   <si>
     <t>2032</t>
   </si>
   <si>
-    <t>₹ 5,17,406</t>
-  </si>
-  <si>
-    <t>₹ 1,37,089</t>
-  </si>
-  <si>
-    <t>₹ 12,39,110</t>
-  </si>
-  <si>
-    <t>72.83%</t>
+    <t>₹ 5,13,555</t>
+  </si>
+  <si>
+    <t>₹ 1,40,941</t>
+  </si>
+  <si>
+    <t>₹ 12,84,021</t>
+  </si>
+  <si>
+    <t>71.84%</t>
   </si>
   <si>
     <t>2033</t>
   </si>
   <si>
-    <t>₹ 5,65,943</t>
-  </si>
-  <si>
-    <t>₹ 88,553</t>
-  </si>
-  <si>
-    <t>₹ 6,73,167</t>
-  </si>
-  <si>
-    <t>85.24%</t>
+    <t>₹ 5,61,730</t>
+  </si>
+  <si>
+    <t>₹ 92,766</t>
+  </si>
+  <si>
+    <t>₹ 7,22,291</t>
+  </si>
+  <si>
+    <t>84.16%</t>
   </si>
   <si>
     <t>2034</t>
   </si>
   <si>
-    <t>₹ 6,19,032</t>
-  </si>
-  <si>
-    <t>₹ 35,463</t>
-  </si>
-  <si>
-    <t>₹ 54,135</t>
-  </si>
-  <si>
-    <t>98.81%</t>
+    <t>₹ 6,14,424</t>
+  </si>
+  <si>
+    <t>₹ 40,071</t>
+  </si>
+  <si>
+    <t>₹ 1,07,868</t>
+  </si>
+  <si>
+    <t>97.63%</t>
   </si>
   <si>
     <t>2035</t>
   </si>
   <si>
-    <t>₹ 406</t>
-  </si>
-  <si>
-    <t>₹ 3,750</t>
-  </si>
-  <si>
-    <t>₹ 58,291</t>
+    <t>₹ 1,215</t>
+  </si>
+  <si>
+    <t>₹ 7,500</t>
+  </si>
+  <si>
+    <t>₹ 1,16,583</t>
   </si>
   <si>
     <t>₹ 0</t>
